--- a/flows/OILK_fund_flow_data.xlsx
+++ b/flows/OILK_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1860"/>
+  <dimension ref="A1:B1879"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19035,6 +19035,196 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1861">
+      <c r="A1861" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="B1861" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B1862" t="n">
+        <v>2.228965</v>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B1863" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B1864" t="n">
+        <v>1.130295</v>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B1865" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B1866" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B1867" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B1868" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B1869" t="n">
+        <v>0.000180494</v>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B1870" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B1871" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B1872" t="n">
+        <v>2.24808</v>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B1873" t="n">
+        <v>2.268815</v>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B1874" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B1875" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B1876" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B1877" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B1878" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B1879" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
